--- a/Working/HW2_BoxModel_manual/starter_code/HW_02_visualization_example.xlsx
+++ b/Working/HW2_BoxModel_manual/starter_code/HW_02_visualization_example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laura/Documents/Teaching/Groundwater_Modeling/HWRS582_Spring22/Git_Course-Materials22/Assignments/HW2_BoxModel_manual/starter_code/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xy_22\Documents\MSc._Hydrology\2022_Spring\GW_Modelling\homework-xenidegracia\Working\HW2_BoxModel_manual\starter_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF4AA087-D637-B34E-96A5-6D94898CAEBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2112DEBB-4AA5-479E-8CB8-9DC9308FEEFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29260" windowHeight="18880" activeTab="6" xr2:uid="{E797DA87-9764-CF40-B10D-4CBD1F0C2290}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="6" xr2:uid="{E797DA87-9764-CF40-B10D-4CBD1F0C2290}"/>
   </bookViews>
   <sheets>
     <sheet name="bcf_1_edited" sheetId="3" r:id="rId1"/>
@@ -9851,19 +9851,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7E986F2-53D6-1C4D-B056-8DFA12526A7B}">
   <dimension ref="A1:Y27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="L13" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:25" s="5" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" s="5" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -9940,7 +9940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -10017,7 +10017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -10094,7 +10094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -10171,7 +10171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -10248,7 +10248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -10325,7 +10325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -10402,7 +10402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -10479,7 +10479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -10556,7 +10556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -10633,7 +10633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -10710,7 +10710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -10787,7 +10787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -10864,7 +10864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>1</v>
       </c>
@@ -10941,7 +10941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -11018,7 +11018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>1</v>
       </c>
@@ -11095,7 +11095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>1</v>
       </c>
@@ -11172,7 +11172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>1</v>
       </c>
@@ -11249,7 +11249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>1</v>
       </c>
@@ -11326,7 +11326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>1</v>
       </c>
@@ -11403,7 +11403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>1</v>
       </c>
@@ -11480,7 +11480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>1</v>
       </c>
@@ -11557,7 +11557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>1</v>
       </c>
@@ -11634,7 +11634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>1</v>
       </c>
@@ -11711,7 +11711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>1</v>
       </c>
@@ -11801,414 +11801,414 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" s="5" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" s="5" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>8</v>
       </c>
@@ -12226,14 +12226,14 @@
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:12" s="5" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="5" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B2">
         <v>1</v>
       </c>
@@ -12265,7 +12265,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B3">
         <v>11</v>
       </c>
@@ -12297,7 +12297,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>21</v>
       </c>
@@ -12314,7 +12314,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>1</v>
       </c>
@@ -12349,7 +12349,7 @@
         <v>13.12</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>12.92</v>
       </c>
@@ -12381,7 +12381,7 @@
         <v>11.04</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>10.83</v>
       </c>
@@ -12398,7 +12398,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>2</v>
       </c>
@@ -12433,7 +12433,7 @@
         <v>13.12</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>12.92</v>
       </c>
@@ -12465,7 +12465,7 @@
         <v>11.04</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>10.83</v>
       </c>
@@ -12482,7 +12482,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>3</v>
       </c>
@@ -12517,7 +12517,7 @@
         <v>13.12</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>12.92</v>
       </c>
@@ -12549,7 +12549,7 @@
         <v>11.04</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>10.83</v>
       </c>
@@ -12566,7 +12566,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B14">
         <v>4</v>
       </c>
@@ -12601,7 +12601,7 @@
         <v>13.12</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B15">
         <v>12.92</v>
       </c>
@@ -12633,7 +12633,7 @@
         <v>11.04</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B16">
         <v>10.83</v>
       </c>
@@ -12650,7 +12650,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B17">
         <v>5</v>
       </c>
@@ -12685,7 +12685,7 @@
         <v>13.12</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B18">
         <v>12.92</v>
       </c>
@@ -12717,7 +12717,7 @@
         <v>11.04</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B19">
         <v>10.83</v>
       </c>
@@ -12734,7 +12734,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B20">
         <v>6</v>
       </c>
@@ -12769,7 +12769,7 @@
         <v>13.12</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B21">
         <v>12.92</v>
       </c>
@@ -12801,7 +12801,7 @@
         <v>11.04</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B22">
         <v>10.83</v>
       </c>
@@ -12818,7 +12818,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B23">
         <v>7</v>
       </c>
@@ -12853,7 +12853,7 @@
         <v>13.12</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B24">
         <v>12.92</v>
       </c>
@@ -12885,7 +12885,7 @@
         <v>11.04</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B25">
         <v>10.83</v>
       </c>
@@ -12902,7 +12902,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B26">
         <v>8</v>
       </c>
@@ -12937,7 +12937,7 @@
         <v>13.12</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B27">
         <v>12.92</v>
       </c>
@@ -12969,7 +12969,7 @@
         <v>11.04</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B28">
         <v>10.83</v>
       </c>
@@ -12986,7 +12986,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B29">
         <v>9</v>
       </c>
@@ -13021,7 +13021,7 @@
         <v>13.12</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B30">
         <v>12.92</v>
       </c>
@@ -13053,7 +13053,7 @@
         <v>11.04</v>
       </c>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B31">
         <v>10.83</v>
       </c>
@@ -13070,7 +13070,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B32">
         <v>10</v>
       </c>
@@ -13105,7 +13105,7 @@
         <v>13.12</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B33">
         <v>12.92</v>
       </c>
@@ -13137,7 +13137,7 @@
         <v>11.04</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B34">
         <v>10.83</v>
       </c>
@@ -13154,7 +13154,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B35">
         <v>11</v>
       </c>
@@ -13189,7 +13189,7 @@
         <v>13.12</v>
       </c>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B36">
         <v>12.92</v>
       </c>
@@ -13221,7 +13221,7 @@
         <v>11.04</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B37">
         <v>10.83</v>
       </c>
@@ -13238,7 +13238,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B38">
         <v>12</v>
       </c>
@@ -13273,7 +13273,7 @@
         <v>13.12</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B39">
         <v>12.92</v>
       </c>
@@ -13305,7 +13305,7 @@
         <v>11.04</v>
       </c>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B40">
         <v>10.83</v>
       </c>
@@ -13322,7 +13322,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B41">
         <v>13</v>
       </c>
@@ -13357,7 +13357,7 @@
         <v>13.12</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B42">
         <v>12.92</v>
       </c>
@@ -13389,7 +13389,7 @@
         <v>11.04</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B43">
         <v>10.83</v>
       </c>
@@ -13406,7 +13406,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B44">
         <v>14</v>
       </c>
@@ -13441,7 +13441,7 @@
         <v>13.12</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B45">
         <v>12.92</v>
       </c>
@@ -13473,7 +13473,7 @@
         <v>11.04</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B46">
         <v>10.83</v>
       </c>
@@ -13490,7 +13490,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B47">
         <v>15</v>
       </c>
@@ -13525,7 +13525,7 @@
         <v>13.12</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B48">
         <v>12.92</v>
       </c>
@@ -13557,7 +13557,7 @@
         <v>11.04</v>
       </c>
     </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B49">
         <v>10.83</v>
       </c>
@@ -13574,7 +13574,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B50">
         <v>16</v>
       </c>
@@ -13609,7 +13609,7 @@
         <v>13.12</v>
       </c>
     </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B51">
         <v>12.92</v>
       </c>
@@ -13641,7 +13641,7 @@
         <v>11.04</v>
       </c>
     </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B52">
         <v>10.83</v>
       </c>
@@ -13658,7 +13658,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B53">
         <v>17</v>
       </c>
@@ -13693,7 +13693,7 @@
         <v>13.12</v>
       </c>
     </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B54">
         <v>12.92</v>
       </c>
@@ -13725,7 +13725,7 @@
         <v>11.04</v>
       </c>
     </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B55">
         <v>10.83</v>
       </c>
@@ -13742,7 +13742,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B56">
         <v>18</v>
       </c>
@@ -13777,7 +13777,7 @@
         <v>13.12</v>
       </c>
     </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B57">
         <v>12.92</v>
       </c>
@@ -13809,7 +13809,7 @@
         <v>11.04</v>
       </c>
     </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B58">
         <v>10.83</v>
       </c>
@@ -13826,7 +13826,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B59">
         <v>19</v>
       </c>
@@ -13861,7 +13861,7 @@
         <v>13.12</v>
       </c>
     </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B60">
         <v>12.92</v>
       </c>
@@ -13893,7 +13893,7 @@
         <v>11.04</v>
       </c>
     </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B61">
         <v>10.83</v>
       </c>
@@ -13910,7 +13910,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B62">
         <v>20</v>
       </c>
@@ -13945,7 +13945,7 @@
         <v>13.12</v>
       </c>
     </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B63">
         <v>12.92</v>
       </c>
@@ -13977,7 +13977,7 @@
         <v>11.04</v>
       </c>
     </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B64">
         <v>10.83</v>
       </c>
@@ -13994,7 +13994,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B65">
         <v>21</v>
       </c>
@@ -14029,7 +14029,7 @@
         <v>13.12</v>
       </c>
     </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B66">
         <v>12.92</v>
       </c>
@@ -14061,7 +14061,7 @@
         <v>11.04</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B67">
         <v>10.83</v>
       </c>
@@ -14078,7 +14078,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B68">
         <v>22</v>
       </c>
@@ -14113,7 +14113,7 @@
         <v>13.12</v>
       </c>
     </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B69">
         <v>12.92</v>
       </c>
@@ -14145,7 +14145,7 @@
         <v>11.04</v>
       </c>
     </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B70">
         <v>10.83</v>
       </c>
@@ -14162,7 +14162,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B71">
         <v>23</v>
       </c>
@@ -14197,7 +14197,7 @@
         <v>13.12</v>
       </c>
     </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B72">
         <v>12.92</v>
       </c>
@@ -14229,7 +14229,7 @@
         <v>11.04</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B73">
         <v>10.83</v>
       </c>
@@ -14246,7 +14246,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B74">
         <v>24</v>
       </c>
@@ -14281,7 +14281,7 @@
         <v>13.12</v>
       </c>
     </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B75">
         <v>12.92</v>
       </c>
@@ -14313,7 +14313,7 @@
         <v>11.04</v>
       </c>
     </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B76">
         <v>10.83</v>
       </c>
@@ -14330,7 +14330,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B77">
         <v>25</v>
       </c>
@@ -14365,7 +14365,7 @@
         <v>13.12</v>
       </c>
     </row>
-    <row r="78" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B78">
         <v>12.92</v>
       </c>
@@ -14397,7 +14397,7 @@
         <v>11.04</v>
       </c>
     </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B79">
         <v>10.83</v>
       </c>
@@ -14427,17 +14427,17 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="4" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="5" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" s="5" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="C2">
         <v>1</v>
       </c>
@@ -14538,7 +14538,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
       <c r="C3">
         <v>0</v>
       </c>
@@ -14639,7 +14639,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1</v>
       </c>
@@ -14722,7 +14722,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2</v>
       </c>
@@ -14806,7 +14806,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A6">
         <f>A5+1</f>
         <v>3</v>
@@ -14891,7 +14891,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A7">
         <f t="shared" ref="A7:A28" si="3">A6+1</f>
         <v>4</v>
@@ -14976,7 +14976,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A8">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -15061,7 +15061,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A9">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -15146,7 +15146,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A10">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -15231,7 +15231,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A11">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -15316,7 +15316,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A12">
         <f t="shared" si="3"/>
         <v>9</v>
@@ -15401,7 +15401,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A13">
         <f t="shared" si="3"/>
         <v>10</v>
@@ -15486,7 +15486,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A14">
         <f t="shared" si="3"/>
         <v>11</v>
@@ -15571,7 +15571,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A15">
         <f t="shared" si="3"/>
         <v>12</v>
@@ -15656,7 +15656,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A16">
         <f t="shared" si="3"/>
         <v>13</v>
@@ -15741,7 +15741,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A17">
         <f t="shared" si="3"/>
         <v>14</v>
@@ -15826,7 +15826,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A18">
         <f t="shared" si="3"/>
         <v>15</v>
@@ -15911,7 +15911,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A19">
         <f t="shared" si="3"/>
         <v>16</v>
@@ -15996,7 +15996,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A20">
         <f t="shared" si="3"/>
         <v>17</v>
@@ -16081,7 +16081,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A21">
         <f t="shared" si="3"/>
         <v>18</v>
@@ -16166,7 +16166,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A22">
         <f t="shared" si="3"/>
         <v>19</v>
@@ -16251,7 +16251,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A23">
         <f t="shared" si="3"/>
         <v>20</v>
@@ -16336,7 +16336,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A24">
         <f t="shared" si="3"/>
         <v>21</v>
@@ -16421,7 +16421,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A25">
         <f t="shared" si="3"/>
         <v>22</v>
@@ -16506,7 +16506,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A26">
         <f t="shared" si="3"/>
         <v>23</v>
@@ -16591,7 +16591,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A27">
         <f t="shared" si="3"/>
         <v>24</v>
@@ -16676,7 +16676,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A28">
         <f t="shared" si="3"/>
         <v>25</v>
@@ -16771,17 +16771,17 @@
   <dimension ref="A1:Z27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:26" s="5" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" s="5" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B2">
         <v>1</v>
       </c>
@@ -16882,7 +16882,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -16983,7 +16983,7 @@
         <v>2.1000000000000085E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A4">
         <f>A3+1</f>
         <v>2</v>
@@ -17085,7 +17085,7 @@
         <v>2.1000000000000085E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A5">
         <f t="shared" ref="A5:A27" si="1">A4+1</f>
         <v>3</v>
@@ -17187,7 +17187,7 @@
         <v>2.1000000000000085E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A6">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -17289,7 +17289,7 @@
         <v>2.1000000000000085E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A7">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -17391,7 +17391,7 @@
         <v>2.1000000000000085E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A8">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -17493,7 +17493,7 @@
         <v>2.1000000000000085E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A9">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -17595,7 +17595,7 @@
         <v>2.1000000000000085E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A10">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -17697,7 +17697,7 @@
         <v>2.1000000000000085E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A11">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -17799,7 +17799,7 @@
         <v>2.1000000000000085E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A12">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -17901,7 +17901,7 @@
         <v>2.1000000000000085E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A13">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -18003,7 +18003,7 @@
         <v>2.1000000000000085E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A14">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -18105,7 +18105,7 @@
         <v>2.1000000000000085E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A15">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -18207,7 +18207,7 @@
         <v>2.1000000000000085E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A16">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -18309,7 +18309,7 @@
         <v>2.1000000000000085E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A17">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -18411,7 +18411,7 @@
         <v>2.1000000000000085E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A18">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -18513,7 +18513,7 @@
         <v>2.1000000000000085E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A19">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -18615,7 +18615,7 @@
         <v>2.1000000000000085E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A20">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -18717,7 +18717,7 @@
         <v>2.1000000000000085E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A21">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -18819,7 +18819,7 @@
         <v>2.1000000000000085E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A22">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -18921,7 +18921,7 @@
         <v>2.1000000000000085E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A23">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -19023,7 +19023,7 @@
         <v>2.1000000000000085E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A24">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -19125,7 +19125,7 @@
         <v>2.1000000000000085E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A25">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -19227,7 +19227,7 @@
         <v>2.1000000000000085E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A26">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -19329,7 +19329,7 @@
         <v>2.1000000000000085E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A27">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -19440,21 +19440,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B181C23-F43C-6848-921C-DFC38BE5DD7E}">
   <dimension ref="A1:Z27"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:XFD1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="5" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" s="5" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B2" s="3">
         <v>1</v>
       </c>
@@ -19555,7 +19555,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -19656,7 +19656,7 @@
         <v>2.1000000000000085E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <f>A3+1</f>
         <v>2</v>
@@ -19758,7 +19758,7 @@
         <v>2.1000000000000085E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <f t="shared" ref="A5:A27" si="1">A4+1</f>
         <v>3</v>
@@ -19860,7 +19860,7 @@
         <v>2.1000000000000085E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -19962,7 +19962,7 @@
         <v>2.1000000000000085E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -20064,7 +20064,7 @@
         <v>2.1000000000000085E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -20166,7 +20166,7 @@
         <v>2.1000000000000085E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -20268,7 +20268,7 @@
         <v>2.1000000000000085E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -20370,7 +20370,7 @@
         <v>2.1000000000000085E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -20472,7 +20472,7 @@
         <v>2.1000000000000085E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -20574,7 +20574,7 @@
         <v>2.1000000000000085E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -20676,7 +20676,7 @@
         <v>2.1000000000000085E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -20778,7 +20778,7 @@
         <v>2.1000000000000085E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -20880,7 +20880,7 @@
         <v>2.1000000000000085E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -20982,7 +20982,7 @@
         <v>2.1000000000000085E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -21084,7 +21084,7 @@
         <v>2.1000000000000085E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -21186,7 +21186,7 @@
         <v>2.1000000000000085E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -21288,7 +21288,7 @@
         <v>2.1000000000000085E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -21390,7 +21390,7 @@
         <v>2.1000000000000085E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -21492,7 +21492,7 @@
         <v>2.1000000000000085E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -21594,7 +21594,7 @@
         <v>2.1000000000000085E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -21696,7 +21696,7 @@
         <v>2.1000000000000085E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -21798,7 +21798,7 @@
         <v>2.1000000000000085E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -21900,7 +21900,7 @@
         <v>2.1000000000000085E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -22002,7 +22002,7 @@
         <v>2.1000000000000085E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -22113,11 +22113,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B7FEA8-679C-6245-B574-9BBD7BB6F993}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>39</v>
       </c>
